--- a/biology/Botanique/Weingut_Egon_Müller_Scharzhofberg/Weingut_Egon_Müller_Scharzhofberg.xlsx
+++ b/biology/Botanique/Weingut_Egon_Müller_Scharzhofberg/Weingut_Egon_Müller_Scharzhofberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Weingut_Egon_M%C3%BCller_Scharzhofberg</t>
+          <t>Weingut_Egon_Müller_Scharzhofberg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Weingut Egon Müller Scharzhofberg est un établissement viticole qui a son siège à Wiltingen, dans le district de Trèves-Sarrebourg. Cette société familiale possède le vignoble de Scharzhofberg, l'un des plus renommés d'Allemagne. Créé en l'an 700, il fut la manse du monastère Saint-Marien ad Martyres de Trèves. Si grande est sa renommée qu'il est l'un des seuls dont les vins sont vendus sans indication du lieu d'origine.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Weingut_Egon_M%C3%BCller_Scharzhofberg</t>
+          <t>Weingut_Egon_Müller_Scharzhofberg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Scharzhofberg fut acheté par Jean-Jacques Koch qui créa le domaine en 1797.
 Sous impulsion Napoléonienne, la nationalité des biens du clergé  se généralise dans les régions conquises : c'est le cas dans la Moselle et la Sarre, aujourd'hui Land de Rhénanie-Palatinat, en Allemagne. 
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Weingut_Egon_M%C3%BCller_Scharzhofberg</t>
+          <t>Weingut_Egon_Müller_Scharzhofberg</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,6 +565,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
